--- a/data/input/absenteeism_data_38.xlsx
+++ b/data/input/absenteeism_data_38.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81134</v>
+        <v>59890</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Melo</t>
+          <t>Emanuel Porto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45093</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>8395.790000000001</v>
+        <v>5252.89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>48473</v>
+        <v>84308</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicolas Pires</t>
+          <t>Agatha Correia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -526,242 +526,242 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45086</v>
+        <v>45103</v>
       </c>
       <c r="G3" t="n">
-        <v>11425.18</v>
+        <v>4168.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>65912</v>
+        <v>82304</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mariana da Mota</t>
+          <t>Murilo Lima</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45095</v>
       </c>
       <c r="G4" t="n">
-        <v>7532.97</v>
+        <v>5963.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>78554</v>
+        <v>31463</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kevin Vieira</t>
+          <t>Yasmin Martins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45080</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>5132.55</v>
+        <v>3882.65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>40285</v>
+        <v>31957</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Renan da Paz</t>
+          <t>Thiago Carvalho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>9098.1</v>
+        <v>11301.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38766</v>
+        <v>70038</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Emanuella Rezende</t>
+          <t>Bryan Pires</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45105</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>10241.01</v>
+        <v>7523.79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>89792</v>
+        <v>58567</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. Pedro Miguel Cardoso</t>
+          <t>Dra. Eduarda da Rosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45101</v>
+        <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>10572.55</v>
+        <v>7301.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63755</v>
+        <v>80965</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maysa Ferreira</t>
+          <t>Bárbara Viana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45093</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>8627.17</v>
+        <v>2551.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>77551</v>
+        <v>58119</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Bruna Cardoso</t>
+          <t>Davi Luiz Barbosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45103</v>
       </c>
       <c r="G10" t="n">
-        <v>11968.01</v>
+        <v>10941.14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>69252</v>
+        <v>69901</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bruno Caldeira</t>
+          <t>Ana Beatriz Farias</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>9734.75</v>
+        <v>12290.84</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_38.xlsx
+++ b/data/input/absenteeism_data_38.xlsx
@@ -476,272 +476,272 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>59890</v>
+        <v>11485</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emanuel Porto</t>
+          <t>Sr. Arthur Monteiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>5252.89</v>
+        <v>8217.559999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>84308</v>
+        <v>79007</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agatha Correia</t>
+          <t>Joana Costela</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45103</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>4168.24</v>
+        <v>4156.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>82304</v>
+        <v>46244</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Murilo Lima</t>
+          <t>Maysa Carvalho</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>5963.34</v>
+        <v>7606.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>31463</v>
+        <v>55130</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yasmin Martins</t>
+          <t>André Monteiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45094</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>3882.65</v>
+        <v>5046.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>31957</v>
+        <v>57926</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Thiago Carvalho</t>
+          <t>Danilo Pires</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45093</v>
       </c>
       <c r="G6" t="n">
-        <v>11301.12</v>
+        <v>3563.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>70038</v>
+        <v>51201</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bryan Pires</t>
+          <t>Carlos Eduardo Silva</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45093</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>7523.79</v>
+        <v>10814.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>58567</v>
+        <v>20169</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dra. Eduarda da Rosa</t>
+          <t>Enzo Gabriel Carvalho</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45103</v>
+        <v>45093</v>
       </c>
       <c r="G8" t="n">
-        <v>7301.34</v>
+        <v>4623.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80965</v>
+        <v>12348</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bárbara Viana</t>
+          <t>Dr. João Felipe Peixoto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>2551.7</v>
+        <v>7360.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>58119</v>
+        <v>33710</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Davi Luiz Barbosa</t>
+          <t>Maria Alice Sales</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45103</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>10941.14</v>
+        <v>10063.41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>69901</v>
+        <v>9368</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Beatriz Farias</t>
+          <t>Sr. João Vitor Nunes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45103</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>12290.84</v>
+        <v>5614.1</v>
       </c>
     </row>
   </sheetData>
